--- a/Examen 2/Pregunta_3/Pregunta_3.xlsx
+++ b/Examen 2/Pregunta_3/Pregunta_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\CI3641---Lenguajes-de-Programaci-n\Examen 2\Pregunta_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F9252C-5C09-4C29-ACA5-DB979F0696D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E216C2-B509-4171-9717-36A52312E035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC188F1C-D760-4F24-88E6-FAAD251C8B9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
   <si>
     <t>Variables</t>
   </si>
@@ -110,27 +110,12 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>[0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quinto marco de pila </t>
   </si>
   <si>
-    <t>[0, 0, 0, 0, 0, 1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sexto marco de pila </t>
   </si>
   <si>
-    <t>[0, 0, 0, 1]</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -144,6 +129,24 @@
   </si>
   <si>
     <t xml:space="preserve">Primer marco de pila </t>
+  </si>
+  <si>
+    <t>[1, 2]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4 ,5]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5]</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +338,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,30 +389,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,21 +396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -715,7 +721,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,11 +745,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -768,17 +774,17 @@
         <v>3</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -830,11 +836,11 @@
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4">
         <v>1</v>
@@ -947,11 +953,11 @@
         <v>23</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4">
         <v>10</v>
@@ -972,10 +978,10 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="4">
         <v>6</v>
       </c>
@@ -1007,7 +1013,7 @@
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
         <v>5</v>
@@ -1038,11 +1044,11 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4">
         <v>4</v>
@@ -1073,10 +1079,10 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6">
         <v>13</v>
       </c>
@@ -1110,10 +1116,10 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6">
         <v>3</v>
       </c>
@@ -1147,10 +1153,10 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -1184,10 +1190,10 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1">
         <v>7</v>
       </c>
@@ -1249,11 +1255,11 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4">
         <v>1</v>
@@ -1499,17 +1505,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E7:G7"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1521,7 +1527,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1545,11 +1551,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1574,23 +1580,23 @@
         <v>3</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
+      <c r="M2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1609,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G3" s="7">
         <v>5</v>
@@ -1619,7 +1625,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K3" s="7">
         <v>2</v>
@@ -1629,7 +1635,7 @@
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O3" s="7">
         <v>0</v>
@@ -1644,11 +1650,11 @@
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4">
         <v>0</v>
@@ -1657,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4">
@@ -1666,8 +1672,8 @@
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
+      <c r="K4" s="7">
+        <v>6</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="4">
@@ -1705,8 +1711,8 @@
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
+      <c r="K5" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4">
@@ -1728,23 +1734,23 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4">
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
@@ -1754,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O6" s="7">
         <v>1</v>
@@ -1779,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7">
         <v>4</v>
@@ -1792,7 +1798,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4">
@@ -1810,10 +1816,10 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="4">
         <v>3</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4">
@@ -1851,7 +1857,7 @@
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
         <v>2</v>
@@ -1860,14 +1866,14 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="4">
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K9" s="7">
         <v>4</v>
@@ -1877,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O9" s="7">
         <v>2</v>
@@ -1888,17 +1894,17 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G10" s="7">
         <v>5</v>
@@ -1929,10 +1935,10 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4">
@@ -1972,12 +1978,12 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>25</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="3"/>
       <c r="H12" s="3"/>
@@ -1985,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7">
         <v>5</v>
@@ -1995,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O12" s="1">
         <v>3</v>
@@ -2006,19 +2012,19 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4">
         <v>0</v>
@@ -2045,19 +2051,19 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="18"/>
+      <c r="A14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -2079,12 +2085,12 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4">
@@ -2094,20 +2100,20 @@
         <v>16</v>
       </c>
       <c r="G15" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="3"/>
       <c r="M15" s="4">
         <v>4</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O15" s="7">
         <v>4</v>
@@ -2118,12 +2124,12 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4">
@@ -2133,14 +2139,14 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="4">
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
@@ -2169,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7">
         <v>4</v>
@@ -2182,7 +2188,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="4">
@@ -2211,7 +2217,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="4">
@@ -2221,14 +2227,14 @@
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="4">
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O18" s="7">
         <v>5</v>
@@ -2257,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K19" s="7">
         <v>2</v>
@@ -2286,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G20" s="7">
         <v>5</v>
@@ -2299,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2346,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K22" s="1">
         <v>3</v>
@@ -2397,7 +2403,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K25" s="7">
         <v>4</v>
@@ -2443,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K28" s="7">
         <v>5</v>
@@ -2462,21 +2468,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
